--- a/Document/はろーごーすとはうす企画書 1 1.xlsx
+++ b/Document/はろーごーすとはうす企画書 1 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\制作物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E7EA73-9DE5-45A3-9430-A1E515FDB6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF116D8B-EF67-4DF9-9F70-82FAC6976581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="4" r:id="rId1"/>
@@ -124,22 +124,7 @@
     <t>お化け概要</t>
   </si>
   <si>
-    <t>おばけはプレイヤーのサイズよりも少し小さく（４８＊４８くらい？）</t>
-  </si>
-  <si>
-    <t>ラウンドごとに登場するおばけの数　大きさが変化します</t>
-  </si>
-  <si>
-    <t>LV１　　おばけ５体が登場　大きさは４８＊４８サイズ</t>
-  </si>
-  <si>
-    <t>LV２　　１のおばけ５体＋大きさ６４＊６４の大き目サイズのおばけ５体　合計１０体</t>
-  </si>
-  <si>
     <t>LV１のおばけとデザイン変更</t>
-  </si>
-  <si>
-    <t>LV３　　１．２のおばけ１０体＋　大きさ＆６４でスピードが1.2倍のおばけ５体　合計１５体</t>
   </si>
   <si>
     <t>（簡単すぎた場合最初のおばけの数と</t>
@@ -547,10 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スピードは３～５くらいにします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（移動が速すぎたら落とします）</t>
     <rPh sb="1" eb="3">
       <t>イドウ</t>
@@ -732,6 +713,39 @@
   </si>
   <si>
     <t>クリックでスタートするようにします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードは3くらいにします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばけha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばけはプレイヤーと同じ大きさで始めます</t>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LV１　　おばけ５体が登場　大きさは６４＊６４サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LV２　　１のおばけ５体＋大きさ６４＊６４サイズのおばけ５体　合計１０体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LV３　　１．２のおばけ１０体＋　大きさが９６＊９６でスピードが1.2倍のおばけ５体　合計１５体</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1170,16 +1184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82694</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>178810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>111269</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>140710</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1197,8 +1211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="25326975"/>
-          <a:ext cx="352425" cy="571500"/>
+          <a:off x="3324442" y="25371353"/>
+          <a:ext cx="353291" cy="719571"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -2058,6 +2072,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>24075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376D26A7-8BC9-4716-8CBF-C09C1856A304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829176" y="2552700"/>
+          <a:ext cx="4838962" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2580,7 +2649,7 @@
     </row>
     <row r="4" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.7">
@@ -2614,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AD68" sqref="AD68"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2736,47 +2805,47 @@
     </row>
     <row r="26" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F26" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F27" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F29" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F31" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="AB31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F33" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="BB33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BC34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
@@ -2784,70 +2853,70 @@
         <v>45957</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:55" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R48" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="R52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
@@ -2855,62 +2924,62 @@
         <v>45949</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G66" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G71" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="7:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G73" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G78" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
@@ -2918,143 +2987,143 @@
         <v>45954</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I102" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I103" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I104" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I106" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I107" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I108" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I109" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I110" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I111" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J112" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="27:27" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AA117" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="6:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F144" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G146" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G148" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G149" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S149" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="6:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F152" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G154" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G155" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G156" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P156" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L159" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L160" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M161" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L167" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L168" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="M177" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F185" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B6B59-71F8-46C4-B435-A6098E4E997D}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3085,78 +3154,79 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="6:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F17" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="6:7" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="6:7" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3165,7 +3235,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3176,10 +3246,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
@@ -3187,89 +3257,90 @@
         <v>45953</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="11:25" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="11:25" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="11:25" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K19" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Y19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="11:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3301,48 +3372,48 @@
         <v>45957</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
     <row r="5" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="X5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="X6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="24:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="24:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="X22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="26:26" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="Z37" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="26:26" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="Z38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Document/はろーごーすとはうす企画書 1 1.xlsx
+++ b/Document/はろーごーすとはうす企画書 1 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\制作物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF116D8B-EF67-4DF9-9F70-82FAC6976581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901C6512-A0E0-4E9D-8DAB-EC4A64D11D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンセプト" sheetId="4" r:id="rId1"/>
@@ -632,16 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>僕たちをどれくらい楽しませられるかな？】</t>
-    <rPh sb="0" eb="1">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>と出してから始まります</t>
     <rPh sb="1" eb="2">
       <t>ダ</t>
@@ -746,6 +736,10 @@
   </si>
   <si>
     <t>LV３　　１．２のおばけ１０体＋　大きさが９６＊９６でスピードが1.2倍のおばけ５体　合計１５体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君は僕たちをどのくらいたのしませてくれるかな？】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2683,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A157" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
@@ -2805,22 +2799,22 @@
     </row>
     <row r="26" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB31" t="s">
         <v>27</v>
@@ -2828,7 +2822,7 @@
     </row>
     <row r="33" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BB33" t="s">
         <v>28</v>
@@ -3142,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B6B59-71F8-46C4-B435-A6098E4E997D}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3180,53 +3174,54 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="6:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="6:7" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="6:7" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3234,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC555EA4-D332-49B9-83FD-5D484A54901C}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
@@ -3330,7 +3325,7 @@
     </row>
     <row r="19" spans="11:25" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y19" t="s">
         <v>104</v>
@@ -3348,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606556EE-BC58-4F3D-AABE-2DA30AED6EF0}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
